--- a/data/data_raw/potencial/potencial_la_esperanza_20231010.xlsx
+++ b/data/data_raw/potencial/potencial_la_esperanza_20231010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HEMERA\ID2023\id23_10297\data\data_raw\potencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F915EC-DE57-4ED2-89EB-F961DE26688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11833258-426C-4264-A3D6-6D42F41D0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>T3H99A8</t>
   </si>
   <si>
-    <t>T0H103A5</t>
-  </si>
-  <si>
-    <t>T0H103A7</t>
-  </si>
-  <si>
     <t>T0H105A6</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>bar</t>
+  </si>
+  <si>
+    <t>T0H103A4</t>
+  </si>
+  <si>
+    <t>T0H103A8</t>
   </si>
 </sst>
 </file>
@@ -402,17 +402,17 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -513,7 +513,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>7.75</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>9.19</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>8.7899999999999991</v>
